--- a/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table11.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/Table11.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb173/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb173/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B3DCF2-BDAB-D343-8E64-EE2A08F4570D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF5A0E-BB85-2C4E-B181-82690EA58D48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="7820" windowWidth="29340" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="680" windowWidth="29340" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -28,123 +28,21 @@
     <t>Croaker white</t>
   </si>
   <si>
-    <t>Flounder/ starry.......</t>
-  </si>
-  <si>
-    <t>Flyingfi«h.....</t>
-  </si>
-  <si>
-    <t>Halibut, California____</t>
-  </si>
-  <si>
-    <t>Mackerel...............</t>
-  </si>
-  <si>
-    <t>Mullet, striped........</t>
-  </si>
-  <si>
     <t>Rockfish, miscellaneous</t>
   </si>
   <si>
-    <t>Sablefish..............</t>
-  </si>
-  <si>
-    <t>Sculpin................</t>
-  </si>
-  <si>
-    <t>Seabass, white.........</t>
-  </si>
-  <si>
-    <t>Shark, bigeye thresher.</t>
-  </si>
-  <si>
-    <t>Shark, bonito..........</t>
-  </si>
-  <si>
-    <t>Shark, common thresher.</t>
-  </si>
-  <si>
     <t>Shark, Pacific angel —</t>
   </si>
   <si>
-    <t>Shark, soupfin.........</t>
-  </si>
-  <si>
     <t>Shark, miscellaneous —</t>
   </si>
   <si>
-    <t>Sheephead, California..</t>
-  </si>
-  <si>
-    <t>Skate..................</t>
-  </si>
-  <si>
-    <t>Smelt, top or jack.....</t>
-  </si>
-  <si>
-    <t>Smelt, true............</t>
-  </si>
-  <si>
-    <t>Smelt, whitebait.......</t>
-  </si>
-  <si>
-    <t>Sole, Dover............</t>
-  </si>
-  <si>
-    <t>Sole, English..........</t>
-  </si>
-  <si>
-    <t>Sole, petrale..........</t>
-  </si>
-  <si>
-    <t>Sole, sand.............</t>
-  </si>
-  <si>
     <t>Sole, miscellaneous----</t>
   </si>
   <si>
-    <t>Surfperch..............</t>
-  </si>
-  <si>
-    <t>Swordfish..............</t>
-  </si>
-  <si>
-    <t>Thornyhead.............</t>
-  </si>
-  <si>
-    <t>Tuna, albacore.........</t>
-  </si>
-  <si>
-    <t>Tuna, bigeye...........</t>
-  </si>
-  <si>
-    <t>Tuna, bluefin..........</t>
-  </si>
-  <si>
-    <t>Tuna, skipjack.........</t>
-  </si>
-  <si>
-    <t>Tuna, yellowfin........</t>
-  </si>
-  <si>
     <t>Tuna, miscellaneous----</t>
   </si>
   <si>
-    <t>Turbot.................</t>
-  </si>
-  <si>
-    <t>Yellowtail.............</t>
-  </si>
-  <si>
-    <t>Miscellaneous fish.....</t>
-  </si>
-  <si>
-    <t>Prawn, ridgeback.......</t>
-  </si>
-  <si>
-    <t>Miscellaneous mollusk..</t>
-  </si>
-  <si>
     <t>Landings</t>
   </si>
   <si>
@@ -292,9 +190,6 @@
     <t>Sea cucumber</t>
   </si>
   <si>
-    <t>Miscellaneous echinoderm....</t>
-  </si>
-  <si>
     <t>Abalone, black</t>
   </si>
   <si>
@@ -332,6 +227,111 @@
   </si>
   <si>
     <t>Grand total</t>
+  </si>
+  <si>
+    <t>Flounder/ starry</t>
+  </si>
+  <si>
+    <t>Flyingfi«h</t>
+  </si>
+  <si>
+    <t>Mackerel</t>
+  </si>
+  <si>
+    <t>Mullet, striped</t>
+  </si>
+  <si>
+    <t>Sablefish</t>
+  </si>
+  <si>
+    <t>Sculpin</t>
+  </si>
+  <si>
+    <t>Seabass, white</t>
+  </si>
+  <si>
+    <t>Shark, bigeye thresher</t>
+  </si>
+  <si>
+    <t>Shark, bonito</t>
+  </si>
+  <si>
+    <t>Shark, common thresher</t>
+  </si>
+  <si>
+    <t>Shark, soupfin</t>
+  </si>
+  <si>
+    <t>Sheephead, California</t>
+  </si>
+  <si>
+    <t>Skate</t>
+  </si>
+  <si>
+    <t>Smelt, top or jack</t>
+  </si>
+  <si>
+    <t>Smelt, true</t>
+  </si>
+  <si>
+    <t>Smelt, whitebait</t>
+  </si>
+  <si>
+    <t>Sole, Dover</t>
+  </si>
+  <si>
+    <t>Sole, English</t>
+  </si>
+  <si>
+    <t>Sole, petrale</t>
+  </si>
+  <si>
+    <t>Sole, sand</t>
+  </si>
+  <si>
+    <t>Surfperch</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Thornyhead</t>
+  </si>
+  <si>
+    <t>Tuna, albacore</t>
+  </si>
+  <si>
+    <t>Tuna, bigeye</t>
+  </si>
+  <si>
+    <t>Tuna, bluefin</t>
+  </si>
+  <si>
+    <t>Tuna, skipjack</t>
+  </si>
+  <si>
+    <t>Tuna, yellowfin</t>
+  </si>
+  <si>
+    <t>Turbot</t>
+  </si>
+  <si>
+    <t>Yellowtail</t>
+  </si>
+  <si>
+    <t>Miscellaneous fish</t>
+  </si>
+  <si>
+    <t>Prawn, ridgeback</t>
+  </si>
+  <si>
+    <t>Miscellaneous echinoderm</t>
+  </si>
+  <si>
+    <t>Miscellaneous mollusk</t>
+  </si>
+  <si>
+    <t>Halibut, California</t>
   </si>
 </sst>
 </file>
@@ -398,9 +398,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,3419 +728,3419 @@
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
         <v>1000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1185437</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>4177162</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>422279</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>582742</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>6368620</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
         <v>600</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>137437</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>199928</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>58387</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>88057</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>484409</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>5798</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>18256</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>4601</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>28660</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="4">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>4943</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>17734</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>3075</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>25754</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5">
         <v>35</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>73</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>5144</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>3783</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>2083</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>11118</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5">
         <v>37</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>169</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>7133</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>4013</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>3697</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>15049</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5">
         <v>1066</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>5716</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>27470</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>6130888</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>14550</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>6179690</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="4">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5">
         <v>246</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>1429</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>6862</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>820840</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>6103</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>835480</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5">
         <v>950</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>2362</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>4364</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>6381</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>732</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>14789</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="4">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5">
         <v>814</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>4684</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>2975</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>5399</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>653</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>14525</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
         <v>530</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>12379</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>62</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>1719</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>35</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>16</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>14741</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5">
         <v>100</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>2784</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>21</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>319</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>15</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>6</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>3245</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
         <v>427796</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>111389</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>138173</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>809129</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>5000</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>1491487</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="4">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5">
         <v>127914</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>35422</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>52871</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>87778</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>3341</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>307326</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5">
         <v>54016</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>54016</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="4">
+        <v>23</v>
+      </c>
+      <c r="I17" s="5">
         <v>30887</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>30887</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
         <v>67524</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>3885</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>71409</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="4">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5">
         <v>6779</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>1149</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>7928</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>99247</v>
+      </c>
+      <c r="F20" s="5">
+        <v>337239</v>
+      </c>
+      <c r="G20" s="5">
+        <v>14583</v>
+      </c>
+      <c r="H20" s="5">
+        <v>17682</v>
+      </c>
+      <c r="I20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="4">
-        <v>99247</v>
-      </c>
-      <c r="F20" s="4">
-        <v>337239</v>
-      </c>
-      <c r="G20" s="4">
-        <v>14583</v>
-      </c>
-      <c r="H20" s="4">
-        <v>17682</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>468753</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="4">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5">
         <v>30943</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>104373</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>4503</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>6705</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>146525</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
         <v>381</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>32004</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>35994</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>36684</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>93</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>3</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <v>105159</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="4">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5">
         <v>27</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>11129</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>14445</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>14135</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>74</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>39811</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="4">
+        <v>7</v>
+      </c>
+      <c r="I24" s="5">
         <v>19950</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>19950</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="4">
+        <v>23</v>
+      </c>
+      <c r="I25" s="5">
         <v>8978</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <v>8978</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="4">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
         <v>68736</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>204</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>13713</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>82653</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="4">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5">
         <v>6881</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>20</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>1091</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="5">
         <v>7992</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="4">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
         <v>5134321</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>5423</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>8145</v>
       </c>
-      <c r="J28" s="4">
-        <v>23</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="5">
+        <v>23</v>
+      </c>
+      <c r="K28" s="5">
         <v>5147912</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="4">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5">
         <v>338618</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>465</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>845</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <v>1</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <v>339929</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
         <v>207</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>307389</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>37574</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>487802</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>174286</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>100074</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="5">
         <v>1107332</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="4">
+        <v>23</v>
+      </c>
+      <c r="E31" s="5">
         <v>286</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>458087</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>70046</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>898684</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>331570</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>185148</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <v>1943821</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="4">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
         <v>147274</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>8125448</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>209317</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>35</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <v>8482074</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="4">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5">
         <v>58456</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>1847595</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>20239</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <v>9</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="5">
         <v>1926299</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="4">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5">
         <v>682865</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>1245192</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>115111</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="5">
         <v>46034</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>5180</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <v>1047</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <v>2095429</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="4">
+        <v>23</v>
+      </c>
+      <c r="E35" s="5">
         <v>183248</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>317461</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>30963</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <v>13751</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>2432</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="5">
         <v>880</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="5">
         <v>548735</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="4">
+        <v>7</v>
+      </c>
+      <c r="F36" s="5">
         <v>1023</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>6220</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="5">
         <v>7073</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>1852</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <v>1841</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <v>18009</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="4">
+        <v>23</v>
+      </c>
+      <c r="F37" s="5">
         <v>816</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>5299</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <v>5838</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>722</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="5">
         <v>2261</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>14936</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="4">
+        <v>7</v>
+      </c>
+      <c r="E38" s="5">
         <v>219</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>35978</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>27843596</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <v>3121516</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>86293331</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="5">
         <v>60409</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <v>117355049</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="4">
+        <v>23</v>
+      </c>
+      <c r="E39" s="5">
         <v>45</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>5667</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>1439760</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <v>254354</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <v>7900034</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="5">
         <v>13388</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="5">
         <v>9613248</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="4">
+        <v>7</v>
+      </c>
+      <c r="J40" s="5">
         <v>24965</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="5">
         <v>24965</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="4">
+        <v>23</v>
+      </c>
+      <c r="J41" s="5">
         <v>17499</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="5">
         <v>17499</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="4">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5">
         <v>13154</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>31629</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="5">
         <v>116634</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="5">
         <v>177697</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="5">
         <v>177012</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="5">
         <v>516126</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="4">
+        <v>23</v>
+      </c>
+      <c r="F43" s="5">
         <v>3127</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>7533</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="5">
         <v>31196</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="5">
         <v>38918</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="5">
         <v>51170</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="5">
         <v>131944</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5">
         <v>71</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="5">
         <v>270</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
         <v>1895</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="5">
         <v>2236</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="4">
+        <v>23</v>
+      </c>
+      <c r="H45" s="5">
         <v>70</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="5">
         <v>20154</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="5">
         <v>20224</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="4">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5">
         <v>116731</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>3587644</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>1363672</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="5">
         <v>1341076</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="5">
         <v>603801</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="5">
         <v>183712</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="5">
         <v>7196636</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="4">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5">
         <v>26018</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>863818</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>329571</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="5">
         <v>366341</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="5">
         <v>228019</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="5">
         <v>85924</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="5">
         <v>1899691</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="4">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5">
         <v>2176509</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>694426</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>180102</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="5">
         <v>451054</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="5">
         <v>254097</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="5">
         <v>78709</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="5">
         <v>3834897</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="4">
+        <v>23</v>
+      </c>
+      <c r="E49" s="5">
         <v>521169</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>202565</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>92708</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="5">
         <v>318671</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="5">
         <v>207475</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="5">
         <v>47258</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="5">
         <v>1389846</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="4">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5">
         <v>4315005</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>1444812</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <v>95704</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="5">
         <v>65598</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="5">
         <v>1877</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="5">
         <v>5429</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="5">
         <v>5928425</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="4">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5">
         <v>925258</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>350756</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>18880</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="5">
         <v>14703</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="5">
         <v>676</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="5">
         <v>2576</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="5">
         <v>1312849</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="4">
+        <v>7</v>
+      </c>
+      <c r="E52" s="5">
         <v>4885320</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>7404501</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>3907440</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="5">
         <v>1408294</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="5">
         <v>478414</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="5">
         <v>1256231</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="5">
         <v>19340200</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="4">
+        <v>23</v>
+      </c>
+      <c r="E53" s="5">
         <v>1164129</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <v>1883086</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>1029481</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="5">
         <v>574684</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="5">
         <v>357315</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="5">
         <v>637311</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="5">
         <v>5646006</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="4">
+        <v>7</v>
+      </c>
+      <c r="E54" s="5">
         <v>5517736</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="5">
         <v>1536983</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="5">
         <v>1218786</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="5">
         <v>302912</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="5">
         <v>2054902</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="5">
         <v>2002</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="5">
         <v>10633321</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="4">
+        <v>23</v>
+      </c>
+      <c r="E55" s="5">
         <v>969428</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <v>252362</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <v>210347</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="5">
         <v>48574</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="5">
         <v>717699</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="5">
         <v>759</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="5">
         <v>2199169</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="4">
+        <v>7</v>
+      </c>
+      <c r="E56" s="5">
         <v>803778</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <v>1684711</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>445629</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="5">
         <v>47903</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="5">
         <v>635</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="5">
         <v>2982656</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="4">
+        <v>23</v>
+      </c>
+      <c r="E57" s="5">
         <v>2054772</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <v>4554267</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>1257268</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="5">
         <v>157710</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="5">
         <v>1786</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="5">
         <v>8025803</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="4">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5">
         <v>282209</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <v>203571</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <v>44436</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="5">
         <v>5624</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="5">
         <v>361</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="5">
         <v>16867</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="5">
         <v>553068</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="4">
+        <v>23</v>
+      </c>
+      <c r="E59" s="5">
         <v>101608</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <v>72804</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <v>14993</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="5">
         <v>1962</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="5">
         <v>313</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="5">
         <v>17757</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="5">
         <v>209437</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="4">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5">
         <v>719</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="5">
         <v>1112</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="5">
         <v>767</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="5">
         <v>2598</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="4">
+        <v>23</v>
+      </c>
+      <c r="G61" s="5">
         <v>270</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="5">
         <v>341</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="5">
         <v>263</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="5">
         <v>874</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="4">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5">
         <v>10</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="5">
         <v>362</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="5">
         <v>22566</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="5">
         <v>2046</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="5">
         <v>24984</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="4">
+        <v>23</v>
+      </c>
+      <c r="F63" s="5">
         <v>1</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="5">
         <v>185</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="5">
         <v>20450</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="5">
         <v>1754</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="5">
         <v>22390</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="4">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5">
         <v>607</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="5">
         <v>235</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="5">
         <v>55117</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="5">
         <v>42729</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="5">
         <v>19411</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="5">
         <v>118099</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="4">
+        <v>23</v>
+      </c>
+      <c r="F65" s="5">
         <v>1249</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>458</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="5">
         <v>104375</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="5">
         <v>83204</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="5">
         <v>38076</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="5">
         <v>227362</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="4">
+        <v>7</v>
+      </c>
+      <c r="F66" s="5">
         <v>4063</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <v>6471</v>
       </c>
-      <c r="H66" s="4">
-        <v>6.7290000000000001</v>
-      </c>
-      <c r="I66" s="4">
+      <c r="H66" s="5">
+        <v>6729</v>
+      </c>
+      <c r="I66" s="5">
         <v>31940</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="5">
         <v>25203</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="5">
         <v>74406</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="4">
+        <v>23</v>
+      </c>
+      <c r="F67" s="5">
         <v>2179</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>3934</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="5">
         <v>4280</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="5">
         <v>19815</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="5">
         <v>17047</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="5">
         <v>47255</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="4">
+        <v>7</v>
+      </c>
+      <c r="F68" s="5">
         <v>5350</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <v>9551</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="5">
         <v>57725</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="5">
         <v>83773</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="5">
         <v>86438</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="5">
         <v>242837</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="4">
+        <v>23</v>
+      </c>
+      <c r="F69" s="5">
         <v>2746</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>6896</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="5">
         <v>46530</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="5">
         <v>66866</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="5">
         <v>66394</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="5">
         <v>189432</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="4">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5">
         <v>32</v>
       </c>
-      <c r="F70" s="4">
-        <v>70.884</v>
-      </c>
-      <c r="G70" s="4">
+      <c r="F70" s="5">
+        <v>70884</v>
+      </c>
+      <c r="G70" s="5">
         <v>77055</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="5">
         <v>567461</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="5">
         <v>508149</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="5">
         <v>435523</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="5">
         <v>1659104</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="4">
+        <v>23</v>
+      </c>
+      <c r="E71" s="5">
         <v>30</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <v>76139</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>69328</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="5">
         <v>546689</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="5">
         <v>499117</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="5">
         <v>449221</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="5">
         <v>1640524</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="4">
+        <v>7</v>
+      </c>
+      <c r="F72" s="5">
         <v>4314</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <v>568</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="5">
         <v>610281</v>
       </c>
-      <c r="I72" s="4">
-        <v>10.746</v>
-      </c>
-      <c r="J72" s="4">
+      <c r="I72" s="5">
+        <v>10746</v>
+      </c>
+      <c r="J72" s="5">
         <v>7364</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="5">
         <v>633273</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="4">
+        <v>23</v>
+      </c>
+      <c r="F73" s="5">
         <v>1843</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <v>213</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="5">
         <v>223343</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="5">
         <v>4215</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="5">
         <v>2997</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="5">
         <v>232611</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="4">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5">
         <v>5445</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <v>32411</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <v>9397</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="5">
         <v>66193</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="5">
         <v>52839</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="5">
         <v>112256</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="5">
         <v>278541</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="4">
+        <v>23</v>
+      </c>
+      <c r="E75" s="5">
         <v>3572</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <v>19951</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <v>4626</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="5">
         <v>40890</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="5">
         <v>46754</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="5">
         <v>96570</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="5">
         <v>212363</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="4">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5">
         <v>3004</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="5">
         <v>117150</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="5">
         <v>40623</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="5">
         <v>53940</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="5">
         <v>40006</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="5">
         <v>59528</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="5">
         <v>314251</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" s="4">
+        <v>23</v>
+      </c>
+      <c r="E77" s="5">
         <v>2244</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="5">
         <v>52786</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <v>28858</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="5">
         <v>36032</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="5">
         <v>33632</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="5">
         <v>82843</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="5">
         <v>236395</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="4">
+        <v>7</v>
+      </c>
+      <c r="F78" s="5">
         <v>647</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="5">
         <v>9955</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="5">
         <v>11177</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="5">
         <v>3319</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="5">
         <v>25098</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="4">
+        <v>23</v>
+      </c>
+      <c r="F79" s="5">
         <v>3882</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="5">
         <v>3575</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="5">
         <v>12318</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="5">
         <v>4867</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="5">
         <v>24642</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="4">
+        <v>7</v>
+      </c>
+      <c r="E80" s="5">
         <v>20318</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="5">
         <v>53639</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <v>30090</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="5">
         <v>10040</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="5">
         <v>1346</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="5">
         <v>860</v>
       </c>
-      <c r="K80" s="4">
-        <v>116.29300000000001</v>
+      <c r="K80" s="5">
+        <v>116293</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" s="4">
+        <v>23</v>
+      </c>
+      <c r="E81" s="5">
         <v>5183</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="5">
         <v>13573</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <v>6448</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="5">
         <v>2425</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="5">
         <v>623</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="5">
         <v>409</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="5">
         <v>28661</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="4">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5">
         <v>3473</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="5">
         <v>1869</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <v>1359</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="5">
         <v>648</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="5">
         <v>42532</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="5">
         <v>49881</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E83" s="4">
+        <v>23</v>
+      </c>
+      <c r="E83" s="5">
         <v>348</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <v>548</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>571</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="5">
         <v>260</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="5">
         <v>6009</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="5">
         <v>7736</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="4">
+        <v>7</v>
+      </c>
+      <c r="E84" s="5">
         <v>147498</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="5">
         <v>4572</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <v>703</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="5">
         <v>42514</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="5">
         <v>195287</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" s="4">
+        <v>23</v>
+      </c>
+      <c r="E85" s="5">
         <v>22476</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <v>1217</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>183</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="5">
         <v>5154</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="5">
         <v>29030</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="4">
+        <v>7</v>
+      </c>
+      <c r="E86" s="5">
         <v>271657</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <v>14213</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <v>1066</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="5">
         <v>340</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="5">
         <v>287276</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E87" s="4">
+        <v>23</v>
+      </c>
+      <c r="E87" s="5">
         <v>83367</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <v>5065</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>449</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="5">
         <v>170</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="5">
         <v>89051</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="4">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5">
         <v>12533250</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <v>3740375</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <v>2454273</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="5">
         <v>2795993</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="5">
         <v>39561</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="5">
         <v>21563452</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" s="4">
+        <v>23</v>
+      </c>
+      <c r="E89" s="5">
         <v>3036635</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="5">
         <v>845815</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <v>528873</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="5">
         <v>599342</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="5">
         <v>9890</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="5">
         <v>5020555</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="4">
+        <v>7</v>
+      </c>
+      <c r="E90" s="5">
         <v>1148189</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="5">
         <v>659801</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="5">
         <v>219247</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="5">
         <v>70357</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="5">
         <v>1370</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="5">
         <v>2098964</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E91" s="4">
+        <v>23</v>
+      </c>
+      <c r="E91" s="5">
         <v>379423</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="5">
         <v>221426</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <v>62697</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="5">
         <v>23494</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="5">
         <v>437</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="5">
         <v>687477</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="4">
+        <v>7</v>
+      </c>
+      <c r="E92" s="5">
         <v>676383</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="5">
         <v>374528</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="5">
         <v>140204</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="5">
         <v>106636</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="5">
         <v>2663</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="5">
         <v>1498</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="5">
         <v>1301912</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" s="4">
+        <v>23</v>
+      </c>
+      <c r="E93" s="5">
         <v>465051</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="5">
         <v>256127</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <v>91878</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="5">
         <v>80137</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="5">
         <v>1969</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="5">
         <v>1348</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="5">
         <v>896510</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="4">
+        <v>7</v>
+      </c>
+      <c r="E94" s="5">
         <v>773094</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="5">
         <v>318269</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="5">
         <v>61567</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="5">
         <v>98206</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="5">
         <v>1568</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="5">
         <v>272</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="5">
         <v>1252976</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="4">
+        <v>23</v>
+      </c>
+      <c r="E95" s="5">
         <v>278232</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="5">
         <v>114380</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <v>21703</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="5">
         <v>33342</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="5">
         <v>503</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="5">
         <v>95</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="5">
         <v>448255</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="4">
+        <v>7</v>
+      </c>
+      <c r="E96" s="5">
         <v>23723</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="5">
         <v>110264</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="5">
         <v>7790</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="5">
         <v>1030</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96" s="5">
         <v>18</v>
       </c>
-      <c r="K96" s="4">
-        <v>142.82499999999999</v>
+      <c r="K96" s="5">
+        <v>142825</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E97" s="4">
+        <v>23</v>
+      </c>
+      <c r="E97" s="5">
         <v>13201</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="5">
         <v>67252</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <v>2712</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="5">
         <v>425</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="5">
         <v>18</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="5">
         <v>83608</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="4">
+        <v>7</v>
+      </c>
+      <c r="E98" s="5">
         <v>10242</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <v>117928</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <v>27643</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="5">
         <v>7952</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="5">
         <v>706</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="5">
         <v>514</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="5">
         <v>164985</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E99" s="4">
+        <v>23</v>
+      </c>
+      <c r="E99" s="5">
         <v>2314</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <v>43408</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <v>7981</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="5">
         <v>3198</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="5">
         <v>424</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="5">
         <v>356</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="5">
         <v>57681</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="4">
+        <v>7</v>
+      </c>
+      <c r="E100" s="5">
         <v>62602</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <v>46008</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <v>677</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="5">
         <v>19569</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="5">
         <v>4724</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="5">
         <v>48540</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K100" s="5">
         <v>182120</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" s="4">
+        <v>23</v>
+      </c>
+      <c r="E101" s="5">
         <v>43595</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <v>56511</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <v>260</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="5">
         <v>19751</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="5">
         <v>3508</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J101" s="5">
         <v>22848</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K101" s="5">
         <v>146473</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F102" s="4">
+        <v>7</v>
+      </c>
+      <c r="F102" s="5">
         <v>375172</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <v>255171</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="5">
         <v>766601</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I102" s="5">
         <v>1922287</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J102" s="5">
         <v>1074047</v>
       </c>
-      <c r="K102" s="4">
+      <c r="K102" s="5">
         <v>4393278</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F103" s="4">
+        <v>23</v>
+      </c>
+      <c r="F103" s="5">
         <v>841208</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <v>575344</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="5">
         <v>2011118</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="5">
         <v>5005115</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="5">
         <v>3126159</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K103" s="5">
         <v>11558944</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="4">
+        <v>7</v>
+      </c>
+      <c r="E104" s="5">
         <v>3091371</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="5">
         <v>531869</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="5">
         <v>369446</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="5">
         <v>664888</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I104" s="5">
         <v>12696</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K104" s="5">
         <v>4670270</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E105" s="4">
+        <v>23</v>
+      </c>
+      <c r="E105" s="5">
         <v>773212</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="5">
         <v>128673</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <v>86825</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="5">
         <v>159112</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="5">
         <v>3175</v>
       </c>
-      <c r="K105" s="4">
+      <c r="K105" s="5">
         <v>1150997</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" s="4">
+        <v>7</v>
+      </c>
+      <c r="E106" s="5">
         <v>999230</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="5">
         <v>1619676</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <v>1315216</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="5">
         <v>710438</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I106" s="5">
         <v>18991581</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="5">
         <v>2490606</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K106" s="5">
         <v>26126747</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E107" s="4">
+        <v>23</v>
+      </c>
+      <c r="E107" s="5">
         <v>521882</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="5">
         <v>865827</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="5">
         <v>667452</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="5">
         <v>377241</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I107" s="5">
         <v>12164061</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="5">
         <v>1619692</v>
       </c>
-      <c r="K107" s="4">
+      <c r="K107" s="5">
         <v>16216155</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G108" s="4">
+        <v>7</v>
+      </c>
+      <c r="G108" s="5">
         <v>160</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="5">
         <v>534</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="5">
         <v>262151</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J108" s="5">
         <v>14519</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K108" s="5">
         <v>277364</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G109" s="4">
+        <v>23</v>
+      </c>
+      <c r="G109" s="5">
         <v>120</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="5">
         <v>474</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="5">
         <v>154061</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="5">
         <v>21034</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K109" s="5">
         <v>175689</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="4">
+        <v>7</v>
+      </c>
+      <c r="F110" s="5">
         <v>1097</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="5">
         <v>504</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="5">
         <v>1894</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="5">
         <v>1377096</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="5">
         <v>20407</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K110" s="5">
         <v>1400998</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="4">
+        <v>23</v>
+      </c>
+      <c r="F111" s="5">
         <v>548</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="5">
         <v>385</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="5">
         <v>2215</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="5">
         <v>896278</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111" s="5">
         <v>18888</v>
       </c>
-      <c r="K111" s="4">
+      <c r="K111" s="5">
         <v>918314</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F112" s="4">
+        <v>7</v>
+      </c>
+      <c r="F112" s="5">
         <v>147</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="5">
         <v>110</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="5">
         <v>3030</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="5">
         <v>48394098</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="5">
         <v>20499598</v>
       </c>
-      <c r="K112" s="4">
+      <c r="K112" s="5">
         <v>68896983</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" s="4">
+        <v>23</v>
+      </c>
+      <c r="F113" s="5">
         <v>51</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="5">
         <v>37</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="5">
         <v>1361</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="5">
         <v>18297545</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="5">
         <v>6510764</v>
       </c>
-      <c r="K113" s="4">
+      <c r="K113" s="5">
         <v>24809758</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>41</v>
+    <row r="114" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E114" s="6">
         <v>506</v>
@@ -4160,15 +4160,15 @@
         <v>77299186</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>57</v>
+    <row r="115" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E115" s="6">
         <v>177</v>
@@ -4190,2018 +4190,2018 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F116" s="4">
+        <v>7</v>
+      </c>
+      <c r="F116" s="5">
         <v>481</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="5">
         <v>566</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="5">
         <v>606</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I116" s="5">
         <v>2229539</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="5">
         <v>5280</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="5">
         <v>2236472</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="4">
+        <v>23</v>
+      </c>
+      <c r="F117" s="5">
         <v>465</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="5">
         <v>485</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="5">
         <v>379</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I117" s="5">
         <v>3594743</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="5">
         <v>5519</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K117" s="5">
         <v>3601591</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E118" s="4">
+        <v>7</v>
+      </c>
+      <c r="E118" s="5">
         <v>16721</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="5">
         <v>3131</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="5">
         <v>2431</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="5">
         <v>650</v>
       </c>
-      <c r="I118" s="4">
+      <c r="I118" s="5">
         <v>120</v>
       </c>
-      <c r="K118" s="4">
+      <c r="K118" s="5">
         <v>23053</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E119" s="4">
+        <v>23</v>
+      </c>
+      <c r="E119" s="5">
         <v>5010</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="5">
         <v>740</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="5">
         <v>638</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="5">
         <v>172</v>
       </c>
-      <c r="I119" s="4">
+      <c r="I119" s="5">
         <v>59</v>
       </c>
-      <c r="K119" s="4">
+      <c r="K119" s="5">
         <v>6619</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F120" s="4">
+        <v>7</v>
+      </c>
+      <c r="F120" s="5">
         <v>32281</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="5">
         <v>20133</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="5">
         <v>4609</v>
       </c>
-      <c r="I120" s="4">
+      <c r="I120" s="5">
         <v>42237</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="5">
         <v>32905</v>
       </c>
-      <c r="K120" s="4">
+      <c r="K120" s="5">
         <v>132165</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="4">
+        <v>23</v>
+      </c>
+      <c r="F121" s="5">
         <v>6667</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="5">
         <v>5019</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="5">
         <v>3893</v>
       </c>
-      <c r="I121" s="4">
+      <c r="I121" s="5">
         <v>33782</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="5">
         <v>25278</v>
       </c>
-      <c r="K121" s="4">
+      <c r="K121" s="5">
         <v>74639</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="4">
+        <v>7</v>
+      </c>
+      <c r="E122" s="5">
         <v>134679</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="5">
         <v>54001</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="5">
         <v>10538</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="5">
         <v>61833</v>
       </c>
-      <c r="I122" s="4">
+      <c r="I122" s="5">
         <v>63376</v>
       </c>
-      <c r="J122" s="4">
+      <c r="J122" s="5">
         <v>25516</v>
       </c>
-      <c r="K122" s="4">
+      <c r="K122" s="5">
         <v>349943</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E123" s="4">
+        <v>23</v>
+      </c>
+      <c r="E123" s="5">
         <v>2251</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="5">
         <v>24250</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="5">
         <v>5988</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="5">
         <v>24347</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="5">
         <v>31571</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123" s="5">
         <v>16917</v>
       </c>
-      <c r="K123" s="4">
+      <c r="K123" s="5">
         <v>105324</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E124" s="4">
+        <v>7</v>
+      </c>
+      <c r="E124" s="5">
         <v>4654524</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="5">
         <v>628352</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="5">
         <v>28251</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="5">
         <v>28451</v>
       </c>
-      <c r="I124" s="4">
+      <c r="I124" s="5">
         <v>48</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124" s="5">
         <v>462</v>
       </c>
-      <c r="K124" s="4">
+      <c r="K124" s="5">
         <v>5340088</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E125" s="4">
+        <v>23</v>
+      </c>
+      <c r="E125" s="5">
         <v>7061120</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="5">
         <v>1275531</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="5">
         <v>73253</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="5">
         <v>23795</v>
       </c>
-      <c r="I125" s="4">
-        <v>23</v>
-      </c>
-      <c r="J125" s="4">
+      <c r="I125" s="5">
+        <v>23</v>
+      </c>
+      <c r="J125" s="5">
         <v>724</v>
       </c>
-      <c r="K125" s="4">
+      <c r="K125" s="5">
         <v>8434446</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E126" s="4">
+        <v>7</v>
+      </c>
+      <c r="E126" s="5">
         <v>21375</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="5">
         <v>40141</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="5">
         <v>14100</v>
       </c>
-      <c r="H126" s="4">
+      <c r="H126" s="5">
         <v>689505</v>
       </c>
-      <c r="I126" s="4">
+      <c r="I126" s="5">
         <v>778375</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="5">
         <v>132802</v>
       </c>
-      <c r="K126" s="4">
+      <c r="K126" s="5">
         <v>1676298</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E127" s="4">
+        <v>23</v>
+      </c>
+      <c r="E127" s="5">
         <v>26697</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="5">
         <v>31980</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="5">
         <v>13787</v>
       </c>
-      <c r="H127" s="4">
+      <c r="H127" s="5">
         <v>572672</v>
       </c>
-      <c r="I127" s="4">
+      <c r="I127" s="5">
         <v>672873</v>
       </c>
-      <c r="J127" s="4">
+      <c r="J127" s="5">
         <v>105657</v>
       </c>
-      <c r="K127" s="4">
+      <c r="K127" s="5">
         <v>1423666</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E128" s="4">
+        <v>7</v>
+      </c>
+      <c r="E128" s="5">
         <v>28</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="5">
         <v>33139</v>
       </c>
-      <c r="I128" s="4">
+      <c r="I128" s="5">
         <v>22302</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="5">
         <v>869</v>
       </c>
-      <c r="K128" s="4">
+      <c r="K128" s="5">
         <v>56338</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E129" s="4">
+        <v>23</v>
+      </c>
+      <c r="E129" s="5">
         <v>49</v>
       </c>
-      <c r="H129" s="4">
+      <c r="H129" s="5">
         <v>15339</v>
       </c>
-      <c r="I129" s="4">
+      <c r="I129" s="5">
         <v>9309</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129" s="5">
         <v>420</v>
       </c>
-      <c r="K129" s="4">
+      <c r="K129" s="5">
         <v>25117</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F130" s="4">
+        <v>7</v>
+      </c>
+      <c r="F130" s="5">
         <v>283</v>
       </c>
-      <c r="H130" s="4">
+      <c r="H130" s="5">
         <v>145427</v>
       </c>
-      <c r="I130" s="4">
+      <c r="I130" s="5">
         <v>150322</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130" s="5">
         <v>148966</v>
       </c>
-      <c r="K130" s="4">
+      <c r="K130" s="5">
         <v>444998</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" s="4">
+        <v>23</v>
+      </c>
+      <c r="F131" s="5">
         <v>1122</v>
       </c>
-      <c r="H131" s="4">
+      <c r="H131" s="5">
         <v>578538</v>
       </c>
-      <c r="I131" s="4">
+      <c r="I131" s="5">
         <v>603145</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131" s="5">
         <v>585242</v>
       </c>
-      <c r="K131" s="4">
+      <c r="K131" s="5">
         <v>1768047</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="5">
         <v>41</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G132" s="4">
-        <v>41</v>
-      </c>
-      <c r="H132" s="4">
+      <c r="H132" s="5">
         <v>391426</v>
       </c>
-      <c r="I132" s="4">
+      <c r="I132" s="5">
         <v>198138</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132" s="5">
         <v>393</v>
       </c>
-      <c r="K132" s="4">
-        <v>589.99800000000005</v>
+      <c r="K132" s="5">
+        <v>589998</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G133" s="4">
+        <v>23</v>
+      </c>
+      <c r="G133" s="5">
         <v>31</v>
       </c>
-      <c r="H133" s="4">
+      <c r="H133" s="5">
         <v>239238</v>
       </c>
-      <c r="I133" s="4">
+      <c r="I133" s="5">
         <v>99370</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="5">
         <v>935</v>
       </c>
-      <c r="K133" s="4">
+      <c r="K133" s="5">
         <v>339574</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G134" s="4">
+        <v>7</v>
+      </c>
+      <c r="G134" s="5">
         <v>2206</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="5">
         <v>48122</v>
       </c>
-      <c r="I134" s="4">
+      <c r="I134" s="5">
         <v>99</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134" s="5">
         <v>37</v>
       </c>
-      <c r="K134" s="4">
+      <c r="K134" s="5">
         <v>50464</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G135" s="4">
+        <v>23</v>
+      </c>
+      <c r="G135" s="5">
         <v>11505</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="5">
         <v>219622</v>
       </c>
-      <c r="I135" s="4">
+      <c r="I135" s="5">
         <v>439</v>
       </c>
-      <c r="J135" s="4">
+      <c r="J135" s="5">
         <v>132</v>
       </c>
-      <c r="K135" s="4">
+      <c r="K135" s="5">
         <v>231698</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="4">
+        <v>7</v>
+      </c>
+      <c r="E136" s="5">
         <v>1350767</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="5">
         <v>10657</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="5">
         <v>165</v>
       </c>
-      <c r="H136" s="4">
+      <c r="H136" s="5">
         <v>215424</v>
       </c>
-      <c r="I136" s="4">
+      <c r="I136" s="5">
         <v>51979</v>
       </c>
-      <c r="K136" s="4">
-        <v>1628.992</v>
+      <c r="K136" s="5">
+        <v>1628992</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E137" s="4">
+        <v>23</v>
+      </c>
+      <c r="E137" s="5">
         <v>613270</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="5">
         <v>5181</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="5">
         <v>185</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="5">
         <v>115478</v>
       </c>
-      <c r="I137" s="4">
+      <c r="I137" s="5">
         <v>24059</v>
       </c>
-      <c r="K137" s="4">
+      <c r="K137" s="5">
         <v>758173</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="4">
+        <v>7</v>
+      </c>
+      <c r="E138" s="5">
         <v>10440</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="5">
         <v>461</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="5">
         <v>3715</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="5">
         <v>31029</v>
       </c>
-      <c r="I138" s="4">
+      <c r="I138" s="5">
         <v>102</v>
       </c>
-      <c r="J138" s="4">
+      <c r="J138" s="5">
         <v>600</v>
       </c>
-      <c r="K138" s="4">
+      <c r="K138" s="5">
         <v>46347</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E139" s="4">
+        <v>23</v>
+      </c>
+      <c r="E139" s="5">
         <v>4750</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="5">
         <v>387</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="5">
         <v>18160</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="5">
         <v>163803</v>
       </c>
-      <c r="I139" s="4">
+      <c r="I139" s="5">
         <v>2042</v>
       </c>
-      <c r="K139" s="4">
+      <c r="K139" s="5">
         <v>189142</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140" s="4">
+        <v>7</v>
+      </c>
+      <c r="E140" s="5">
         <v>648</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="5">
         <v>1137</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="5">
         <v>47</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="5">
         <v>173</v>
       </c>
-      <c r="I140" s="4">
+      <c r="I140" s="5">
         <v>207</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="5">
         <v>840</v>
       </c>
-      <c r="K140" s="4">
+      <c r="K140" s="5">
         <v>3052</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E141" s="4">
+        <v>23</v>
+      </c>
+      <c r="E141" s="5">
         <v>194</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="5">
         <v>490</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="5">
         <v>34</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="5">
         <v>171</v>
       </c>
-      <c r="I141" s="4">
+      <c r="I141" s="5">
         <v>268</v>
       </c>
-      <c r="J141" s="4">
+      <c r="J141" s="5">
         <v>1333</v>
       </c>
-      <c r="K141" s="4">
+      <c r="K141" s="5">
         <v>2490</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H142" s="4">
+        <v>7</v>
+      </c>
+      <c r="H142" s="5">
         <v>49249</v>
       </c>
-      <c r="I142" s="4">
+      <c r="I142" s="5">
         <v>2684</v>
       </c>
-      <c r="J142" s="4">
+      <c r="J142" s="5">
         <v>420</v>
       </c>
-      <c r="K142" s="4">
+      <c r="K142" s="5">
         <v>52354</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H143" s="4">
+        <v>23</v>
+      </c>
+      <c r="H143" s="5">
         <v>8127</v>
       </c>
-      <c r="I143" s="4">
+      <c r="I143" s="5">
         <v>1165</v>
       </c>
-      <c r="J143" s="4">
+      <c r="J143" s="5">
         <v>42</v>
       </c>
-      <c r="K143" s="4">
+      <c r="K143" s="5">
         <v>9334</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E144" s="4">
+        <v>7</v>
+      </c>
+      <c r="E144" s="5">
         <v>54310</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="5">
         <v>9760</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="5">
         <v>170</v>
       </c>
-      <c r="H144" s="4">
+      <c r="H144" s="5">
         <v>11456101</v>
       </c>
-      <c r="I144" s="4">
+      <c r="I144" s="5">
         <v>2700517</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144" s="5">
         <v>758011</v>
       </c>
-      <c r="K144" s="4">
+      <c r="K144" s="5">
         <v>14978869</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E145" s="4">
+        <v>23</v>
+      </c>
+      <c r="E145" s="5">
         <v>15518</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="5">
         <v>3023</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="5">
         <v>130</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="5">
         <v>2758495</v>
       </c>
-      <c r="I145" s="4">
+      <c r="I145" s="5">
         <v>663020</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145" s="5">
         <v>196161</v>
       </c>
-      <c r="K145" s="4">
+      <c r="K145" s="5">
         <v>3636347</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E146" s="4">
+        <v>7</v>
+      </c>
+      <c r="E146" s="5">
         <v>117</v>
       </c>
-      <c r="G146" s="4">
-        <v>8</v>
-      </c>
-      <c r="I146" s="4">
+      <c r="G146" s="5">
+        <v>8</v>
+      </c>
+      <c r="I146" s="5">
         <v>77941</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="5">
         <v>30</v>
       </c>
-      <c r="K146" s="4">
+      <c r="K146" s="5">
         <v>78096</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I147" s="4">
+        <v>23</v>
+      </c>
+      <c r="I147" s="5">
         <v>13548</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147" s="5">
         <v>20</v>
       </c>
-      <c r="K147" s="4">
+      <c r="K147" s="5">
         <v>13568</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F148" s="4">
+        <v>7</v>
+      </c>
+      <c r="F148" s="5">
         <v>52</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="5">
         <v>12</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="5">
         <v>332726</v>
       </c>
-      <c r="I148" s="4">
+      <c r="I148" s="5">
         <v>91748</v>
       </c>
-      <c r="J148" s="4">
+      <c r="J148" s="5">
         <v>11756</v>
       </c>
-      <c r="K148" s="4">
+      <c r="K148" s="5">
         <v>436294</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F149" s="4">
+        <v>23</v>
+      </c>
+      <c r="F149" s="5">
         <v>250</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="5">
         <v>58</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="5">
         <v>640485</v>
       </c>
-      <c r="I149" s="4">
+      <c r="I149" s="5">
         <v>182777</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149" s="5">
         <v>22526</v>
       </c>
-      <c r="K149" s="4">
+      <c r="K149" s="5">
         <v>846096</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H150" s="4">
+        <v>7</v>
+      </c>
+      <c r="H150" s="5">
         <v>1760</v>
       </c>
-      <c r="I150" s="4">
+      <c r="I150" s="5">
         <v>24704</v>
       </c>
-      <c r="J150" s="4">
+      <c r="J150" s="5">
         <v>5446</v>
       </c>
-      <c r="K150" s="4">
+      <c r="K150" s="5">
         <v>31910</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H151" s="4">
+        <v>23</v>
+      </c>
+      <c r="H151" s="5">
         <v>6014</v>
       </c>
-      <c r="I151" s="4">
+      <c r="I151" s="5">
         <v>100903</v>
       </c>
-      <c r="J151" s="4">
+      <c r="J151" s="5">
         <v>19538</v>
       </c>
-      <c r="K151" s="4">
+      <c r="K151" s="5">
         <v>126455</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H152" s="4">
+        <v>7</v>
+      </c>
+      <c r="H152" s="5">
         <v>28594</v>
       </c>
-      <c r="I152" s="4">
+      <c r="I152" s="5">
         <v>20118</v>
       </c>
-      <c r="J152" s="4">
+      <c r="J152" s="5">
         <v>8318</v>
       </c>
-      <c r="K152" s="4">
+      <c r="K152" s="5">
         <v>57030</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H153" s="4">
+        <v>23</v>
+      </c>
+      <c r="H153" s="5">
         <v>99463</v>
       </c>
-      <c r="I153" s="4">
+      <c r="I153" s="5">
         <v>73710</v>
       </c>
-      <c r="J153" s="4">
+      <c r="J153" s="5">
         <v>28876</v>
       </c>
-      <c r="K153" s="4">
+      <c r="K153" s="5">
         <v>202049</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F154" s="4">
+        <v>7</v>
+      </c>
+      <c r="F154" s="5">
         <v>52957</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="5">
         <v>866</v>
       </c>
-      <c r="H154" s="4">
+      <c r="H154" s="5">
         <v>222978</v>
       </c>
-      <c r="I154" s="4">
+      <c r="I154" s="5">
         <v>5266</v>
       </c>
-      <c r="J154" s="4">
+      <c r="J154" s="5">
         <v>17692</v>
       </c>
-      <c r="K154" s="4">
+      <c r="K154" s="5">
         <v>299759</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F155" s="4">
+        <v>23</v>
+      </c>
+      <c r="F155" s="5">
         <v>361618</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="5">
         <v>4906</v>
       </c>
-      <c r="H155" s="4">
+      <c r="H155" s="5">
         <v>692527</v>
       </c>
-      <c r="I155" s="4">
+      <c r="I155" s="5">
         <v>16313</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155" s="5">
         <v>67552</v>
       </c>
-      <c r="K155" s="4">
+      <c r="K155" s="5">
         <v>1142916</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E156" s="4">
+        <v>7</v>
+      </c>
+      <c r="E156" s="5">
         <v>71</v>
       </c>
-      <c r="H156" s="4">
+      <c r="H156" s="5">
         <v>132</v>
       </c>
-      <c r="I156" s="4">
+      <c r="I156" s="5">
         <v>62</v>
       </c>
-      <c r="J156" s="4">
+      <c r="J156" s="5">
         <v>184</v>
       </c>
-      <c r="K156" s="4">
+      <c r="K156" s="5">
         <v>449</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E157" s="4">
+        <v>23</v>
+      </c>
+      <c r="E157" s="5">
         <v>18</v>
       </c>
-      <c r="H157" s="4">
+      <c r="H157" s="5">
         <v>579</v>
       </c>
-      <c r="I157" s="4">
+      <c r="I157" s="5">
         <v>254</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157" s="5">
         <v>834</v>
       </c>
-      <c r="K157" s="4">
+      <c r="K157" s="5">
         <v>1685</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F158" s="4">
+        <v>7</v>
+      </c>
+      <c r="F158" s="5">
         <v>73</v>
       </c>
-      <c r="H158" s="4">
+      <c r="H158" s="5">
         <v>1163</v>
       </c>
-      <c r="K158" s="4">
+      <c r="K158" s="5">
         <v>1236</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F159" s="4">
+        <v>23</v>
+      </c>
+      <c r="F159" s="5">
         <v>290</v>
       </c>
-      <c r="H159" s="4">
+      <c r="H159" s="5">
         <v>7211</v>
       </c>
-      <c r="K159" s="4">
+      <c r="K159" s="5">
         <v>7501</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="4">
+        <v>7</v>
+      </c>
+      <c r="E160" s="5">
         <v>500</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="5">
         <v>3121</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="5">
         <v>1205</v>
       </c>
-      <c r="H160" s="4">
+      <c r="H160" s="5">
         <v>1527</v>
       </c>
-      <c r="I160" s="4">
+      <c r="I160" s="5">
         <v>1049</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="5">
         <v>80</v>
       </c>
-      <c r="K160" s="4">
+      <c r="K160" s="5">
         <v>7482</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E161" s="4">
+        <v>23</v>
+      </c>
+      <c r="E161" s="5">
         <v>32</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="5">
         <v>735</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="5">
         <v>242</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H161" s="5">
         <v>928</v>
       </c>
-      <c r="I161" s="4">
+      <c r="I161" s="5">
         <v>1305</v>
       </c>
-      <c r="K161" s="4">
+      <c r="K161" s="5">
         <v>3242</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E162" s="4">
+        <v>7</v>
+      </c>
+      <c r="E162" s="5">
         <v>500</v>
       </c>
-      <c r="F162" s="4">
+      <c r="F162" s="5">
         <v>6682</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="5">
         <v>20</v>
       </c>
-      <c r="I162" s="4">
+      <c r="I162" s="5">
         <v>456</v>
       </c>
-      <c r="K162" s="4">
+      <c r="K162" s="5">
         <v>7658</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" s="4">
+        <v>23</v>
+      </c>
+      <c r="E163" s="5">
         <v>635</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="5">
         <v>6322</v>
       </c>
-      <c r="H163" s="4">
+      <c r="H163" s="5">
         <v>19</v>
       </c>
-      <c r="I163" s="4">
+      <c r="I163" s="5">
         <v>228</v>
       </c>
-      <c r="K163" s="4">
+      <c r="K163" s="5">
         <v>7204</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E164" s="4">
+        <v>7</v>
+      </c>
+      <c r="E164" s="5">
         <v>9035</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="5">
         <v>3801</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="5">
         <v>636</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="5">
         <v>1330</v>
       </c>
-      <c r="I164" s="4">
+      <c r="I164" s="5">
         <v>518</v>
       </c>
-      <c r="J164" s="4">
+      <c r="J164" s="5">
         <v>201</v>
       </c>
-      <c r="K164" s="4">
+      <c r="K164" s="5">
         <v>15521</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E165" s="4">
+        <v>23</v>
+      </c>
+      <c r="E165" s="5">
         <v>5935</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="5">
         <v>2248</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="5">
         <v>482</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="5">
         <v>666</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I165" s="5">
         <v>2167</v>
       </c>
-      <c r="J165" s="4">
+      <c r="J165" s="5">
         <v>277</v>
       </c>
-      <c r="K165" s="4">
+      <c r="K165" s="5">
         <v>11775</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F166" s="4">
+        <v>7</v>
+      </c>
+      <c r="F166" s="5">
         <v>5559</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="5">
         <v>1900</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="5">
         <v>5498</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I166" s="5">
         <v>18420</v>
       </c>
-      <c r="J166" s="4">
+      <c r="J166" s="5">
         <v>1577</v>
       </c>
-      <c r="K166" s="4">
+      <c r="K166" s="5">
         <v>32954</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F167" s="4">
+        <v>23</v>
+      </c>
+      <c r="F167" s="5">
         <v>4690</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="5">
         <v>760</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="5">
         <v>1670</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167" s="5">
         <v>5877</v>
       </c>
-      <c r="J167" s="4">
+      <c r="J167" s="5">
         <v>455</v>
       </c>
-      <c r="K167" s="4">
+      <c r="K167" s="5">
         <v>13452</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E168" s="4">
+        <v>7</v>
+      </c>
+      <c r="E168" s="5">
         <v>123</v>
       </c>
-      <c r="F168" s="4">
+      <c r="F168" s="5">
         <v>213769</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="5">
         <v>861720</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="5">
         <v>21606</v>
       </c>
-      <c r="I168" s="4">
+      <c r="I168" s="5">
         <v>146207</v>
       </c>
-      <c r="J168" s="4">
+      <c r="J168" s="5">
         <v>33</v>
       </c>
-      <c r="K168" s="4">
+      <c r="K168" s="5">
         <v>1243458</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="4">
+        <v>23</v>
+      </c>
+      <c r="E169" s="5">
         <v>85</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="5">
         <v>54951</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="5">
         <v>203327</v>
       </c>
-      <c r="H169" s="4">
+      <c r="H169" s="5">
         <v>10007</v>
       </c>
-      <c r="I169" s="4">
+      <c r="I169" s="5">
         <v>36132</v>
       </c>
-      <c r="J169" s="4">
+      <c r="J169" s="5">
         <v>25</v>
       </c>
-      <c r="K169" s="4">
+      <c r="K169" s="5">
         <v>304527</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F170" s="4">
+        <v>7</v>
+      </c>
+      <c r="F170" s="5">
         <v>197</v>
       </c>
-      <c r="G170" s="4">
+      <c r="G170" s="5">
         <v>586</v>
       </c>
-      <c r="H170" s="4">
+      <c r="H170" s="5">
         <v>2223</v>
       </c>
-      <c r="I170" s="4">
+      <c r="I170" s="5">
         <v>5214</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170" s="5">
         <v>20</v>
       </c>
-      <c r="K170" s="4">
+      <c r="K170" s="5">
         <v>8240</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F171" s="4">
+        <v>23</v>
+      </c>
+      <c r="F171" s="5">
         <v>170</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="5">
         <v>140</v>
       </c>
-      <c r="H171" s="4">
+      <c r="H171" s="5">
         <v>13538</v>
       </c>
-      <c r="I171" s="4">
+      <c r="I171" s="5">
         <v>41045</v>
       </c>
-      <c r="J171" s="4">
+      <c r="J171" s="5">
         <v>200</v>
       </c>
-      <c r="K171" s="4">
+      <c r="K171" s="5">
         <v>55093</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E172" s="4">
+        <v>7</v>
+      </c>
+      <c r="E172" s="5">
         <v>50730865</v>
       </c>
-      <c r="F172" s="4">
+      <c r="F172" s="5">
         <v>38023024</v>
       </c>
-      <c r="G172" s="4">
+      <c r="G172" s="5">
         <v>46229305</v>
       </c>
-      <c r="H172" s="4">
+      <c r="H172" s="5">
         <v>28619517</v>
       </c>
-      <c r="I172" s="4">
+      <c r="I172" s="5">
         <v>243403929</v>
       </c>
-      <c r="J172" s="4">
+      <c r="J172" s="5">
         <v>43842359</v>
       </c>
-      <c r="K172" s="4">
+      <c r="K172" s="5">
         <v>450848999</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" s="4">
+        <v>23</v>
+      </c>
+      <c r="E173" s="5">
         <v>19844222</v>
       </c>
-      <c r="F173" s="4">
+      <c r="F173" s="5">
         <v>16701764</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="5">
         <v>7360136</v>
       </c>
-      <c r="H173" s="4">
+      <c r="H173" s="5">
         <v>13382991</v>
       </c>
-      <c r="I173" s="4">
+      <c r="I173" s="5">
         <v>90720777</v>
       </c>
-      <c r="J173" s="4">
+      <c r="J173" s="5">
         <v>20316160</v>
       </c>
-      <c r="K173" s="4">
+      <c r="K173" s="5">
         <v>168326050</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I174" s="4">
+        <v>7</v>
+      </c>
+      <c r="I174" s="5">
         <v>14942404</v>
       </c>
-      <c r="J174" s="4">
-        <v>2175.7359999999999</v>
-      </c>
-      <c r="K174" s="4">
+      <c r="J174" s="5">
+        <v>2175736</v>
+      </c>
+      <c r="K174" s="5">
         <v>17118140</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I175" s="4">
+        <v>23</v>
+      </c>
+      <c r="I175" s="5">
         <v>11915646</v>
       </c>
-      <c r="J175" s="4">
+      <c r="J175" s="5">
         <v>1931479</v>
       </c>
-      <c r="K175" s="4">
+      <c r="K175" s="5">
         <v>13847125</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I176" s="4">
+        <v>7</v>
+      </c>
+      <c r="I176" s="5">
         <v>1840</v>
       </c>
-      <c r="K176" s="4">
+      <c r="K176" s="5">
         <v>1840</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I177" s="4">
+        <v>23</v>
+      </c>
+      <c r="I177" s="5">
         <v>920</v>
       </c>
-      <c r="K177" s="4">
+      <c r="K177" s="5">
         <v>920</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I178" s="4">
+        <v>7</v>
+      </c>
+      <c r="I178" s="5">
         <v>17081810</v>
       </c>
-      <c r="J178" s="4">
+      <c r="J178" s="5">
         <v>4279670</v>
       </c>
-      <c r="K178" s="4">
+      <c r="K178" s="5">
         <v>21361480</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I179" s="4">
+        <v>23</v>
+      </c>
+      <c r="I179" s="5">
         <v>6223368</v>
       </c>
-      <c r="J179" s="4">
+      <c r="J179" s="5">
         <v>1354622</v>
       </c>
-      <c r="K179" s="4">
+      <c r="K179" s="5">
         <v>7577990</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I180" s="4">
+        <v>7</v>
+      </c>
+      <c r="I180" s="5">
         <v>1492864</v>
       </c>
-      <c r="K180" s="4">
+      <c r="K180" s="5">
         <v>1492864</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I181" s="4">
+        <v>23</v>
+      </c>
+      <c r="I181" s="5">
         <v>766551</v>
       </c>
-      <c r="K181" s="4">
+      <c r="K181" s="5">
         <v>766551</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I182" s="4">
+        <v>7</v>
+      </c>
+      <c r="I182" s="5">
         <v>5472657</v>
       </c>
-      <c r="K182" s="4">
+      <c r="K182" s="5">
         <v>5472657</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I183" s="4">
+        <v>23</v>
+      </c>
+      <c r="I183" s="5">
         <v>5217688</v>
       </c>
-      <c r="K183" s="4">
+      <c r="K183" s="5">
         <v>5217688</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I184" s="4">
+        <v>7</v>
+      </c>
+      <c r="I184" s="5">
         <v>38991575</v>
       </c>
-      <c r="J184" s="4">
+      <c r="J184" s="5">
         <v>6455406</v>
       </c>
-      <c r="K184" s="4">
+      <c r="K184" s="5">
         <v>45446981</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I185" s="4">
+        <v>23</v>
+      </c>
+      <c r="I185" s="5">
         <v>24124173</v>
       </c>
-      <c r="J185" s="4">
+      <c r="J185" s="5">
         <v>3286101</v>
       </c>
-      <c r="K185" s="4">
+      <c r="K185" s="5">
         <v>27410274</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E186" s="4">
+        <v>7</v>
+      </c>
+      <c r="E186" s="5">
         <v>50730865</v>
       </c>
-      <c r="F186" s="4">
+      <c r="F186" s="5">
         <v>38023024</v>
       </c>
-      <c r="G186" s="4">
+      <c r="G186" s="5">
         <v>46229305</v>
       </c>
-      <c r="H186" s="4">
+      <c r="H186" s="5">
         <v>28619517</v>
       </c>
-      <c r="I186" s="4">
+      <c r="I186" s="5">
         <v>282395504</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186" s="5">
         <v>50297765</v>
       </c>
-      <c r="K186" s="4">
+      <c r="K186" s="5">
         <v>496295980</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>57</v>
+    <row r="187" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E187" s="6">
         <v>19844222</v>
